--- a/OrangeHRM  - Test Summary Report.xlsx
+++ b/OrangeHRM  - Test Summary Report.xlsx
@@ -555,6 +555,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,9 +592,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,33 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,16 +633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11545</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597409</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>37589</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>121144</xdr:rowOff>
+      <xdr:rowOff>109599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -665,8 +665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10367818" y="565727"/>
-          <a:ext cx="8555182" cy="4623872"/>
+          <a:off x="10341773" y="554182"/>
+          <a:ext cx="8006907" cy="4623872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -958,120 +958,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="13">
         <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="11">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="12">
         <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="21">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="26">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.35">
@@ -1136,7 +1136,7 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -1159,7 +1159,7 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="20" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -1216,7 +1216,7 @@
       <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="9">
@@ -1484,7 +1484,7 @@
       <c r="F29" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1499,16 +1499,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
